--- a/biology/Botanique/Xeranthemum_cylindraceum/Xeranthemum_cylindraceum.xlsx
+++ b/biology/Botanique/Xeranthemum_cylindraceum/Xeranthemum_cylindraceum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xéranthème cylindracé, Xéranthème fétide
 Xeranthemum cylindraceum, le Xéranthème cylindracé ou Xéranthème fétide, est une espèce de plante à fleurs de la famille des Astéracées. 
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une plante herbacée annuelle poussant en touffe dont les tiges dressées mesurent de 30 à 50 cm. Ses capitules solitaires, oblongs-cylindriques portent de 10 à 15 fleurs violacées sur un involucre à bractées tomenteuses et obtuses. Ses fruits sont des akènes de 6 à 7 mm de long[1]. 
-Xeranthemum cylindraceum se distingue de ses congénères par la présence d'une plage tomenteuse sur le dos de ses bractées[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une plante herbacée annuelle poussant en touffe dont les tiges dressées mesurent de 30 à 50 cm. Ses capitules solitaires, oblongs-cylindriques portent de 10 à 15 fleurs violacées sur un involucre à bractées tomenteuses et obtuses. Ses fruits sont des akènes de 6 à 7 mm de long. 
+Xeranthemum cylindraceum se distingue de ses congénères par la présence d'une plage tomenteuse sur le dos de ses bractées.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce affectionne les milieux xérophiles tels que les pelouses calcaires et les friches[2]. Elle fleurit en juillet-août[1]. Le pâturage des ovins lui est favorable[3].
-Xeranthemum cylindraceum est présent au Maroc, au Sud de l'Europe dont le Portugal, l'Espagne, la France, l'Italie, l'Albanie, Bulgarie, les pays de l’ex-Tchécoslovaquie, la Hongrie, l'Ukraine, la Roumanie et la Grèce ainsi que l'Allemagne et la Suisse et enfin en Asie Mineure dont la Turquie, le Liban, la Syrie, la Palestine, l'Irak, le Caucase et l'Iran[4],[1],[2].
-En France, le Xéranthème fétide, considéré comme rare, est présent au Sud de la Loire dont le Midi, l'Ouest et le Centre. Absent de l'Est, il manque fréquemment en région méditerranéenne[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce affectionne les milieux xérophiles tels que les pelouses calcaires et les friches. Elle fleurit en juillet-août. Le pâturage des ovins lui est favorable.
+Xeranthemum cylindraceum est présent au Maroc, au Sud de l'Europe dont le Portugal, l'Espagne, la France, l'Italie, l'Albanie, Bulgarie, les pays de l’ex-Tchécoslovaquie, la Hongrie, l'Ukraine, la Roumanie et la Grèce ainsi que l'Allemagne et la Suisse et enfin en Asie Mineure dont la Turquie, le Liban, la Syrie, la Palestine, l'Irak, le Caucase et l'Iran.
+En France, le Xéranthème fétide, considéré comme rare, est présent au Sud de la Loire dont le Midi, l'Ouest et le Centre. Absent de l'Est, il manque fréquemment en région méditerranéenne,.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, l'espèce est évaluée sur la liste rouge nationale (LC) et dans les régions Aquitaine (LC), Auvergne, NT, Bourgogne (EN), Centre (EN), Ile de France (CR), Midi-Pyrénées (LC), Pays de la Loire (VU), Poitou-Charentes (VU) et Rhône-Alpes (LC)[5]. L'espèce est déterminante ZNIEFF dans plusieurs régions et protégée en Région Pays de la Loire. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, l'espèce est évaluée sur la liste rouge nationale (LC) et dans les régions Aquitaine (LC), Auvergne, NT, Bourgogne (EN), Centre (EN), Ile de France (CR), Midi-Pyrénées (LC), Pays de la Loire (VU), Poitou-Charentes (VU) et Rhône-Alpes (LC). L'espèce est déterminante ZNIEFF dans plusieurs régions et protégée en Région Pays de la Loire. 
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life[6] et le jardin botanique de Kew[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life et le jardin botanique de Kew :
 Chardinia cylindrica Desv.
 Xeroloma cylindracea (Sibth. &amp; Sm.) Holub
 Xeranthemum cylindricum Spreng.
